--- a/Risikomanagement GamingBet.xlsx
+++ b/Risikomanagement GamingBet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\OneDrive\shared-stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint_000\Documents\GitHub\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,23 +528,23 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <f>PRODUCT(C2,D2)</f>
-        <v>1.2</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,23 +552,23 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E17" si="0">PRODUCT(C3,D3)</f>
-        <v>0.5</v>
+        <f>PRODUCT(C3,D3)</f>
+        <v>1.4</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -576,23 +576,23 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
+        <f>PRODUCT(C4,D4)</f>
+        <v>1.2</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -600,23 +600,23 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.27</v>
+        <f>PRODUCT(C5,D5)</f>
+        <v>1.2</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,23 +624,23 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
+        <f>PRODUCT(C6,D6)</f>
+        <v>0.63000000000000012</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -648,23 +648,23 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
+        <f>PRODUCT(C7,D7)</f>
+        <v>0.63</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,23 +672,23 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.63</v>
+        <f>PRODUCT(C8,D8)</f>
+        <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -696,26 +696,29 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.63000000000000012</v>
+        <f>PRODUCT(C9,D9)</f>
+        <v>0.27</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:G9">
+    <sortCondition descending="1" ref="E2:E9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/Risikomanagement GamingBet.xlsx
+++ b/Risikomanagement GamingBet.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint_000\Documents\GitHub\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Risk Name</t>
   </si>
@@ -123,13 +123,19 @@
   </si>
   <si>
     <t>Risk Impact (1-10)</t>
+  </si>
+  <si>
+    <t>Reported</t>
+  </si>
+  <si>
+    <t>Resolved?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +147,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,9 +179,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -483,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +515,7 @@
     <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,8 +537,14 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -537,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <f>PRODUCT(C2,D2)</f>
+        <f t="shared" ref="E2:E9" si="0">PRODUCT(C2,D2)</f>
         <v>1.4000000000000001</v>
       </c>
       <c r="F2" t="s">
@@ -547,7 +568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -561,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f>PRODUCT(C3,D3)</f>
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="F3" t="s">
@@ -571,7 +592,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -585,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f>PRODUCT(C4,D4)</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="F4" t="s">
@@ -595,7 +616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -609,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <f>PRODUCT(C5,D5)</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="F5" t="s">
@@ -619,7 +640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -633,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <f>PRODUCT(C6,D6)</f>
+        <f t="shared" si="0"/>
         <v>0.63000000000000012</v>
       </c>
       <c r="F6" t="s">
@@ -643,31 +664,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.21</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7">
-        <f>PRODUCT(C7,D7)</f>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <v>42503</v>
+      </c>
+      <c r="I7" s="3">
+        <v>42512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -681,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <f>PRODUCT(C8,D8)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
@@ -691,7 +718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -705,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <f>PRODUCT(C9,D9)</f>
+        <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
       <c r="F9" t="s">
